--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H2">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I2">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J2">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.8795367236577776</v>
+        <v>4.313634844505778</v>
       </c>
       <c r="R2">
-        <v>7.915830512919999</v>
+        <v>38.822713600552</v>
       </c>
       <c r="S2">
-        <v>0.00693715659088291</v>
+        <v>0.02090063193581096</v>
       </c>
       <c r="T2">
-        <v>0.006997066326962451</v>
+        <v>0.0211438655245901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H3">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I3">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J3">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>2.074664493438778</v>
+        <v>10.57856792339822</v>
       </c>
       <c r="R3">
-        <v>18.671980440949</v>
+        <v>95.207111310584</v>
       </c>
       <c r="S3">
-        <v>0.01636346962827844</v>
+        <v>0.05125578834205984</v>
       </c>
       <c r="T3">
-        <v>0.01650478561760815</v>
+        <v>0.05185228367207816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>419.995132</v>
       </c>
       <c r="I4">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J4">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N4">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q4">
-        <v>18.53391851390222</v>
+        <v>19.25939010524356</v>
       </c>
       <c r="R4">
-        <v>166.80526662512</v>
+        <v>173.334510947192</v>
       </c>
       <c r="S4">
-        <v>0.1461822929222344</v>
+        <v>0.09331652733902521</v>
       </c>
       <c r="T4">
-        <v>0.1474447327235765</v>
+        <v>0.09440250951921889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>419.995132</v>
       </c>
       <c r="I5">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J5">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N5">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O5">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P5">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q5">
-        <v>43.71808661401823</v>
+        <v>47.23087923194045</v>
       </c>
       <c r="R5">
-        <v>393.462779526164</v>
+        <v>425.077913087464</v>
       </c>
       <c r="S5">
-        <v>0.3448169980145486</v>
+        <v>0.228845337729236</v>
       </c>
       <c r="T5">
-        <v>0.3477948600645331</v>
+        <v>0.231508552551745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.13145400000001</v>
+        <v>130.001713</v>
       </c>
       <c r="H6">
-        <v>276.394362</v>
+        <v>390.005139</v>
       </c>
       <c r="I6">
-        <v>0.3231214493241425</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J6">
-        <v>0.3259119472027818</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N6">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q6">
-        <v>12.19697609021333</v>
+        <v>17.88416232179267</v>
       </c>
       <c r="R6">
-        <v>109.77278481192</v>
+        <v>160.957460896134</v>
       </c>
       <c r="S6">
-        <v>0.09620102355838282</v>
+        <v>0.08665320724682547</v>
       </c>
       <c r="T6">
-        <v>0.09703182186262445</v>
+        <v>0.08766164424732376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.13145400000001</v>
+        <v>130.001713</v>
       </c>
       <c r="H7">
-        <v>276.394362</v>
+        <v>390.005139</v>
       </c>
       <c r="I7">
-        <v>0.3231214493241425</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J7">
-        <v>0.3259119472027818</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N7">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O7">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P7">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q7">
-        <v>28.77041121881934</v>
+        <v>43.85833124357534</v>
       </c>
       <c r="R7">
-        <v>258.933700969374</v>
+        <v>394.724981192178</v>
       </c>
       <c r="S7">
-        <v>0.2269204257657597</v>
+        <v>0.2125045052917248</v>
       </c>
       <c r="T7">
-        <v>0.2288801253401573</v>
+        <v>0.2149775517341761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.323940500000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H8">
-        <v>14.647881</v>
+        <v>29.994338</v>
       </c>
       <c r="I8">
-        <v>0.02568636623409617</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J8">
-        <v>0.01727213024375885</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N8">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q8">
-        <v>0.96959206966</v>
+        <v>2.063140543104667</v>
       </c>
       <c r="R8">
-        <v>5.81755241796</v>
+        <v>12.378843258628</v>
       </c>
       <c r="S8">
-        <v>0.007647448748401322</v>
+        <v>0.009996428227623942</v>
       </c>
       <c r="T8">
-        <v>0.005142328409205834</v>
+        <v>0.006741841899652466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.323940500000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H9">
-        <v>14.647881</v>
+        <v>29.994338</v>
       </c>
       <c r="I9">
-        <v>0.02568636623409617</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J9">
-        <v>0.01727213024375885</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N9">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O9">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P9">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q9">
-        <v>2.2870884022645</v>
+        <v>5.059554913079333</v>
       </c>
       <c r="R9">
-        <v>13.722530413587</v>
+        <v>30.357329478476</v>
       </c>
       <c r="S9">
-        <v>0.01803891748569485</v>
+        <v>0.02451479988668604</v>
       </c>
       <c r="T9">
-        <v>0.01212980183455301</v>
+        <v>0.01653339585642579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.03202233333334</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H10">
-        <v>117.096067</v>
+        <v>354.616897</v>
       </c>
       <c r="I10">
-        <v>0.1368922672858171</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J10">
-        <v>0.1380744778207791</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N10">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q10">
-        <v>5.167319329968889</v>
+        <v>16.26139123258689</v>
       </c>
       <c r="R10">
-        <v>46.50587396972</v>
+        <v>146.352521093282</v>
       </c>
       <c r="S10">
-        <v>0.04075611896910174</v>
+        <v>0.0787904783710226</v>
       </c>
       <c r="T10">
-        <v>0.04110809146663396</v>
+        <v>0.07970741192952294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.03202233333334</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H11">
-        <v>117.096067</v>
+        <v>354.616897</v>
       </c>
       <c r="I11">
-        <v>0.1368922672858171</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J11">
-        <v>0.1380744778207791</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N11">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O11">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P11">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q11">
-        <v>12.18875079548989</v>
+        <v>39.87871896527711</v>
       </c>
       <c r="R11">
-        <v>109.698757159409</v>
+        <v>358.908470687494</v>
       </c>
       <c r="S11">
-        <v>0.09613614831671537</v>
+        <v>0.1932222956299853</v>
       </c>
       <c r="T11">
-        <v>0.09696638635414516</v>
+        <v>0.1954709430652669</v>
       </c>
     </row>
   </sheetData>
